--- a/document/MOM UAT.xlsx
+++ b/document/MOM UAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DISBUN-APP\disbun-peminjaman-barang-iventaris\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\disbun-peminjaman-barang-inventaris\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9C42DC9-ABC0-4CAD-A2F9-D559DF22A6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A63928-EAC6-4672-AFEE-F05F7EF7B449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="25012021" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
   <si>
     <t>Hari / Tanggal</t>
   </si>
@@ -97,9 +97,6 @@
     <t>User Acceptance Testing Aplikasi Peminjaman dan Pengembalian Barang Inventaris Dinas</t>
   </si>
   <si>
-    <t>: Rabu, 30 Juni 2021</t>
-  </si>
-  <si>
     <t>: Mochammad Fauzan Rizqulloh</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>: Screenshot Participant Zoom Meeting</t>
   </si>
   <si>
-    <t>Deployment Aplikasi ke Server</t>
-  </si>
-  <si>
     <t>Mochammad Fauzan Rizqulloh</t>
   </si>
   <si>
@@ -122,9 +116,6 @@
   </si>
   <si>
     <t>Sosialisasi Penggunaan Aplikasi</t>
-  </si>
-  <si>
-    <t>2 Juli 2021 atau 5 Juli 2021</t>
   </si>
   <si>
     <t>1 Juli 2021</t>
@@ -154,6 +145,15 @@
   </si>
   <si>
     <t>LAMPIRAN</t>
+  </si>
+  <si>
+    <t>Tentative</t>
+  </si>
+  <si>
+    <t>Penggunaan aplikasi</t>
+  </si>
+  <si>
+    <t>: Rabu, 5 Juni 2021</t>
   </si>
 </sst>
 </file>
@@ -490,6 +490,9 @@
     <xf numFmtId="20" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -503,9 +506,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -655,15 +655,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3536950</xdr:colOff>
+      <xdr:colOff>3171826</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>85548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>282221</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:colOff>282222</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -678,8 +678,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4629150" y="8391348"/>
-          <a:ext cx="2669821" cy="1506185"/>
+          <a:off x="4295776" y="5457648"/>
+          <a:ext cx="2768246" cy="1714677"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -796,15 +796,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1461204</xdr:colOff>
+      <xdr:colOff>1232604</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>76376</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3280832</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>160161</xdr:rowOff>
+      <xdr:colOff>3052232</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -819,8 +819,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2553404" y="8382176"/>
-          <a:ext cx="1819628" cy="1506185"/>
+          <a:off x="2356554" y="5448476"/>
+          <a:ext cx="1819628" cy="1723849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1322,90 +1322,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="4.6328125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="62.81640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="12.36328125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="9.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.08984375" style="1"/>
+    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="62.85546875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="39.5" customHeight="1">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" ht="39.6" customHeight="1">
+      <c r="A2" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" ht="53.4" customHeight="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="26" t="s">
+    <row r="3" spans="1:6" ht="53.45" customHeight="1">
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" s="9" customFormat="1" ht="36" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="10" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="28"/>
+      <c r="E4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" s="9" customFormat="1" ht="33" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="28"/>
+      <c r="E5" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="29"/>
     </row>
     <row r="6" spans="1:6" s="9" customFormat="1" ht="51" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="27"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="28"/>
+      <c r="E6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="29"/>
     </row>
-    <row r="7" spans="1:6" ht="35" customHeight="1">
+    <row r="7" spans="1:6" ht="35.1" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
@@ -1425,80 +1425,84 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="43.5">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="15">
         <v>1</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="43.5">
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="45">
       <c r="A9" s="15">
         <v>2</v>
       </c>
-      <c r="B9" s="29" t="s">
-        <v>22</v>
+      <c r="B9" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="29">
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="30">
       <c r="A10" s="22">
         <v>3</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="21"/>
+        <v>24</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="42.5" customHeight="1">
+    <row r="11" spans="1:6" ht="42.6" customHeight="1">
       <c r="A11" s="22">
         <v>4</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1507,7 +1511,7 @@
     <row r="13" spans="1:6">
       <c r="A13" s="5"/>
     </row>
-    <row r="30" spans="1:6" ht="15.5">
+    <row r="30" spans="1:6" ht="15.75">
       <c r="A30" s="30"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -1530,7 +1534,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.51181102362204722" right="0.31496062992125984" top="0.62992125984251968" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="28" max="5" man="1"/>
   </rowBreaks>
@@ -1542,15 +1546,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD173CB5-A98E-4EE1-AFBA-A09859B8AF53}">
   <dimension ref="A2:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="1:11">
       <c r="A2" s="32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
